--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,16 +1490,16 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de La Estrella</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>250</v>
+        <v>398</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1508,12 +1508,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,16 +1538,16 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Estrella</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1556,12 +1556,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">

--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,16 +1490,16 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Estrella</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1508,12 +1508,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,16 +1538,16 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de La Estrella</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>250</v>
+        <v>398</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1556,12 +1556,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">

--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,16 +1490,16 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Estrella</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1508,12 +1508,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,16 +1538,16 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de La Estrella</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>250</v>
+        <v>398</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1556,12 +1556,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Agrícola Costanera S.A.</t>
+          <t>Olivos del Sur S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">

--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
+          <t>Modificación Planta de Aceite de Oliva</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Olivos del Sur S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>31678</v>
+        <v>10000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>18/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155912607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Pulin</t>
+          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Agrícola Santa Lucía Ltda.</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>55000</v>
+        <v>31678</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153909303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/10/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153449839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153909303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CENTRAL SOLAR GRAN GUADALAO</t>
+          <t>Parque Fotovoltaico Pulin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FOTOVOLTAICA MAÑÍO SPA</t>
+          <t>Agrícola Santa Lucía Ltda.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>800</v>
+        <v>55000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19/05/2020</t>
+          <t>22/10/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146548093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153449839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>19/05/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146346970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146548093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Planta de Alimentos Balanceados La Estrella</t>
+          <t>CENTRAL SOLAR GRAN GUADALAO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>FOTOVOLTAICA MAÑÍO SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>70000</v>
+        <v>800</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/08/2018</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141217775&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146346970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Embalse Estacional La Estrella</t>
+          <t>Planta de Alimentos Balanceados La Estrella</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Juan Carlos Fernández Padilla</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>510</v>
+        <v>70000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19/05/2016</t>
+          <t>20/08/2018</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131208144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141217775&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Maitenes</t>
+          <t>Embalse Estacional La Estrella</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Maitenes Solar Spa</t>
+          <t>Juan Carlos Fernández Padilla</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>20000</v>
+        <v>510</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/04/2015</t>
+          <t>19/05/2016</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131208144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Berlino</t>
+          <t>Planta Fotovoltaica Maitenes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Berlino Solar Spa</t>
+          <t>Maitenes Solar Spa</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/03/2015</t>
+          <t>23/04/2015</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Eólico La Estrella</t>
+          <t>Planta Fotovoltaica Berlino</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Eólica La Estrella SpA</t>
+          <t>Berlino Solar Spa</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>105000</v>
+        <v>20000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>20/03/2015</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130253259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico La Estrella</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Eólica La Estrella SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>200</v>
+        <v>105000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130253259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Plantel de cerdos Quebrada Honda</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Agrícola Santa Lucía Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>18015</v>
+        <v>100</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>14/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6370413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>07/07/2011</t>
+          <t>14/12/2011</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5766571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6370413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA PROCESADORA DE ACEITE DE OLIVA AGRÍCOLA POBEÑA S.A. LA ESTRELLA, REGIÓN DEL LIBERTADOR GENERAL BERNARDO O¿HIGGINS</t>
+          <t>Plantel de cerdos Quebrada Honda</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Agrícola Pobeña S.A.</t>
+          <t>Agrícola Santa Lucía Ltda.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5082</v>
+        <v>18015</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>30/06/2011</t>
+          <t>07/07/2011</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5698957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5766571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Regularización Tranque Cerro Colorado</t>
+          <t>PROYECTO PLANTA PROCESADORA DE ACEITE DE OLIVA AGRÍCOLA POBEÑA S.A. LA ESTRELLA, REGIÓN DEL LIBERTADOR GENERAL BERNARDO O¿HIGGINS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1163,11 +1163,11 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>650</v>
+        <v>5082</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>27/12/2010</t>
+          <t>30/06/2011</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5126661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5698957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Embalse Olivos del Sur</t>
+          <t>Regularización Tranque Cerro Colorado</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>OLIVOS DEL SUR SA</t>
+          <t>Agrícola Pobeña S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>71</v>
+        <v>650</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>03/09/2010</t>
+          <t>27/12/2010</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4897884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5126661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PLANTELES DE BROILER NUEVA ESTRELLA</t>
+          <t>Embalse Olivos del Sur</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>OLIVOS DEL SUR SA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>14/07/2010</t>
+          <t>03/09/2010</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4756761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4897884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Planta de Aceite de Oliva San Jose (e-seia)</t>
+          <t>PLANTELES DE BROILER NUEVA ESTRELLA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Agromarchigüe S.A.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>25/01/2010</t>
+          <t>14/07/2010</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4343737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4756761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>18/01/2010</t>
+          <t>25/01/2010</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4343737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Planta de Aceite de Oliva San Jose (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Agromarchigüe S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>50</v>
+        <v>1700</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>18/01/2010</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Estrella</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>398</v>
+        <v>22</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,16 +1538,16 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de La Estrella</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>250</v>
+        <v>398</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1556,12 +1556,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento Aguas Servidas, La Estrella La Estrella (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Estrella</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>451</v>
+        <v>250</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>24/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3205671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Mejoramiento Planta de Tratamiento Aguas Servidas, La Estrella La Estrella (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,20 +1682,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de La Estrella</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>250</v>
+        <v>451</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>24/09/2008</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3205671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,36 +1720,40 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Plantel de Cerdos Quebrada Honda</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Agrícola Santa Lucía Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>52020</v>
+        <v>250</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>05/12/2007</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2568800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1764,14 +1768,10 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>EMBALSE PARCELAS DE GUADALAO. AGRICOLA COSTANERA S.A. (e-seia)</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Plantel de Cerdos Quebrada Honda</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
           <t>Sexta</t>
@@ -1779,25 +1779,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Olivos del Sur S.A.</t>
+          <t>Agrícola Santa Lucía Ltda.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>150</v>
+        <v>52020</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09/11/2007</t>
+          <t>05/12/2007</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2486798&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2568800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>EMBALSE PARCELAS DE GUADALAO. AGRICOLA COSTANERA S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1822,30 +1822,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Olivos del Sur S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>09/11/2007</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2486798&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1875,15 +1875,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PLANTEL DE CERDOS SANTA CLOTILDE (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1918,30 +1918,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Agrícola Santa Lucía Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>15000</v>
+        <v>10</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>19/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2244246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>PLANTEL DE CERDOS SANTA CLOTILDE (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1966,30 +1966,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Agrícola Santa Lucía Ltda.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>19/07/2007</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2244246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Planta de Aceite de Oliva (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2014,30 +2014,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Olivos del Sur S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18/04/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2111933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Embalse Estacional Las Damas III (v 2.0) (e-seia)</t>
+          <t>Planta de Aceite de Oliva (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2067,15 +2067,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Inversiones Monte Los Olivos .</t>
+          <t>Olivos del Sur S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>106</v>
+        <v>4000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>06/02/2007</t>
+          <t>18/04/2007</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1964789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2111933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Embalse Estacional Las Damas III (e-seia)</t>
+          <t>Embalse Estacional Las Damas III (v 2.0) (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,21 +2119,21 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>17/01/2007</t>
+          <t>06/02/2007</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1933005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1964789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Embalse Estacional Las Damas III (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2158,30 +2158,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Inversiones Monte Los Olivos .</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>17/01/2007</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1933005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2219,17 +2219,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>EMBALSE VIÑA VERAMONTE (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2254,30 +2254,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Empresas Vitivinícolas S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Embalse Estacional Las Damas II, Inversiones Monte Los Olivos S.A. (e-seia)</t>
+          <t>EMBALSE VIÑA VERAMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2307,25 +2307,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Inversiones Monte Los Olivos .</t>
+          <t>Empresas Vitivinícolas S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1654083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Embalse Estacional Las Damas I, Inversiones Monte los Olivos S.A. (e-seia)</t>
+          <t>Embalse Estacional Las Damas II, Inversiones Monte Los Olivos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,11 +2359,11 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>486</v>
+        <v>256</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>21/08/2006</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1600467&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1654083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE LA ESTRELLA. LOCALIDAD LA ESTRELLA (e-seia)</t>
+          <t>Embalse Estacional Las Damas I, Inversiones Monte los Olivos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2403,15 +2403,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>I.M. de LA ESTRELLA</t>
+          <t>Inversiones Monte Los Olivos .</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>18/07/2006</t>
+          <t>21/08/2006</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1561319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1600467&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE LA ESTRELLA. LOCALIDAD LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2446,30 +2446,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>I.M. de LA ESTRELLA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>18/07/2006</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1561319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sector de Crianza de Aves Broiler, Nueva Estrella (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2494,20 +2494,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4532</v>
+        <v>4000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>17/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1352322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Sector de Crianza de Aves Broiler, Nueva Estrella (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2542,30 +2542,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>4000</v>
+        <v>4532</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>17/03/2006</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1352322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2595,25 +2595,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2651,17 +2651,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ampliación de 8 Planteles Destete-Venta de Cerdos y Modificación de Sistema de Tratamiento, sector La Estrella (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2686,30 +2686,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>5200</v>
+        <v>72</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>05/04/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=647064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE PARA EL MANEJO DE GUANOS Y LODOS, SECTOR LA ESTRELLA (e-seia)</t>
+          <t>Ampliación de 8 Planteles Destete-Venta de Cerdos y Modificación de Sistema de Tratamiento, sector La Estrella (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,21 +2743,21 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>600</v>
+        <v>5200</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>18/03/2005</t>
+          <t>05/04/2005</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=647064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sector de Crianza de Pollos Broiler, Los Huilles (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE PARA EL MANEJO DE GUANOS Y LODOS, SECTOR LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,21 +2791,21 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3969</v>
+        <v>600</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>20/01/2005</t>
+          <t>18/03/2005</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=575085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ampliación de Cuatro Planteles de Pollos Broiler, La Estrella (e-seia)</t>
+          <t>Sector de Crianza de Pollos Broiler, Los Huilles (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2032</v>
+        <v>3969</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>11/01/2005</t>
+          <t>20/01/2005</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=564688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=575085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>"Sector de Crianza de Pollos Broiler, Las Correhuelas" (e-seia)</t>
+          <t>Ampliación de Cuatro Planteles de Pollos Broiler, La Estrella (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3515</v>
+        <v>2032</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>24/06/2004</t>
+          <t>11/01/2005</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=384533&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=564688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sector de Crianza Pollos Broiler Las Cardillas (e-seia)</t>
+          <t>"Sector de Crianza de Pollos Broiler, Las Correhuelas" (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2767</v>
+        <v>3515</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>22/04/2004</t>
+          <t>24/06/2004</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=331497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=384533&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sector de Crianza Pollos Broiler Las Murallas (e-seia)</t>
+          <t>Sector de Crianza Pollos Broiler Las Cardillas (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2713</v>
+        <v>2767</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>31/03/2004</t>
+          <t>22/04/2004</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=306095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=331497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Modificación al Tratamiento de Residuos Industriales Líquidos de Olivícola La Estrella S.A. (e-seia)</t>
+          <t>Sector de Crianza Pollos Broiler Las Murallas (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3027,15 +3027,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Olivícola La Estrella S.A.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>12</v>
+        <v>2713</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>22/03/2004</t>
+          <t>31/03/2004</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267574&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=306095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Modificación al Tratamiento de Residuos Industriales Líquidos de Olivícola La Estrella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3075,15 +3075,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Olivícola La Estrella S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>22/03/2004</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267574&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental para Planta Procesadora de Aceitunas Olivícola La Estrella S.A.</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3123,15 +3123,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Olivicola La Estrella Sociedad Anónima</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>09/01/2001</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sector de Engorda de Cerdos La Estrella 1 2 3 4 5 6 7 y 8</t>
+          <t>Saneamiento Ambiental para Planta Procesadora de Aceitunas Olivícola La Estrella S.A.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3171,15 +3171,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Olivicola La Estrella Sociedad Anónima</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1800</v>
+        <v>70</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>05/07/2000</t>
+          <t>09/01/2001</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3204,43 +3204,91 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>Sector de Engorda de Cerdos La Estrella 1 2 3 4 5 6 7 y 8</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Agrícola Super Limitada</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>05/07/2000</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2979&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>La Estrella</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
           <t>Plan Regulador Intercomunal Lago Rapel</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
-      <c r="F60" t="n">
+      <c r="F61" t="n">
         <v>0</v>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>13/01/2000</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>La Estrella</t>
         </is>

--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,16 +1538,16 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Estrella</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1556,12 +1556,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,16 +1586,16 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de La Estrella</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>250</v>
+        <v>398</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1604,12 +1604,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">

--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,16 +1538,16 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de La Estrella</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>250</v>
+        <v>398</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1556,12 +1556,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,16 +1586,16 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Estrella</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1604,12 +1604,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">

--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2022</t>
+          <t>30/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,16 +1538,16 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de La Estrella</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>250</v>
+        <v>398</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1556,12 +1556,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,16 +1586,16 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Estrella</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1604,12 +1604,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">

--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/05/2022</t>
+          <t>17/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155912607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156293388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
+          <t>Modificación Planta de Aceite de Oliva</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Olivos del Sur S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>31678</v>
+        <v>10000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>30/05/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155912607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Pulin</t>
+          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Agrícola Santa Lucía Ltda.</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>55000</v>
+        <v>31678</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153909303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/10/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153449839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153909303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CENTRAL SOLAR GRAN GUADALAO</t>
+          <t>Parque Fotovoltaico Pulin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FOTOVOLTAICA MAÑÍO SPA</t>
+          <t>Agrícola Santa Lucía Ltda.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>800</v>
+        <v>55000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19/05/2020</t>
+          <t>22/10/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146548093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153449839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>19/05/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146346970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146548093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Planta de Alimentos Balanceados La Estrella</t>
+          <t>CENTRAL SOLAR GRAN GUADALAO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>FOTOVOLTAICA MAÑÍO SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>70000</v>
+        <v>800</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/08/2018</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141217775&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146346970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Embalse Estacional La Estrella</t>
+          <t>Planta de Alimentos Balanceados La Estrella</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Juan Carlos Fernández Padilla</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>510</v>
+        <v>70000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>19/05/2016</t>
+          <t>20/08/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131208144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141217775&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Maitenes</t>
+          <t>Embalse Estacional La Estrella</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Maitenes Solar Spa</t>
+          <t>Juan Carlos Fernández Padilla</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>20000</v>
+        <v>510</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/04/2015</t>
+          <t>19/05/2016</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131208144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Berlino</t>
+          <t>Planta Fotovoltaica Maitenes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Berlino Solar Spa</t>
+          <t>Maitenes Solar Spa</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -879,7 +879,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/03/2015</t>
+          <t>23/04/2015</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Eólico La Estrella</t>
+          <t>Planta Fotovoltaica Berlino</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Eólica La Estrella SpA</t>
+          <t>Berlino Solar Spa</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>105000</v>
+        <v>20000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>20/03/2015</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130253259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico La Estrella</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Eólica La Estrella SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>200</v>
+        <v>105000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130253259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Plantel de cerdos Quebrada Honda</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Agrícola Santa Lucía Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>18015</v>
+        <v>100</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>14/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6370413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>07/07/2011</t>
+          <t>14/12/2011</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5766571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6370413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA PROCESADORA DE ACEITE DE OLIVA AGRÍCOLA POBEÑA S.A. LA ESTRELLA, REGIÓN DEL LIBERTADOR GENERAL BERNARDO O¿HIGGINS</t>
+          <t>Plantel de cerdos Quebrada Honda</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Agrícola Pobeña S.A.</t>
+          <t>Agrícola Santa Lucía Ltda.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5082</v>
+        <v>18015</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>30/06/2011</t>
+          <t>07/07/2011</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5698957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5766571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Regularización Tranque Cerro Colorado</t>
+          <t>PROYECTO PLANTA PROCESADORA DE ACEITE DE OLIVA AGRÍCOLA POBEÑA S.A. LA ESTRELLA, REGIÓN DEL LIBERTADOR GENERAL BERNARDO O¿HIGGINS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1211,11 +1211,11 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>650</v>
+        <v>5082</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>27/12/2010</t>
+          <t>30/06/2011</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5126661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5698957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Embalse Olivos del Sur</t>
+          <t>Regularización Tranque Cerro Colorado</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>OLIVOS DEL SUR SA</t>
+          <t>Agrícola Pobeña S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>71</v>
+        <v>650</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>03/09/2010</t>
+          <t>27/12/2010</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4897884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5126661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PLANTELES DE BROILER NUEVA ESTRELLA</t>
+          <t>Embalse Olivos del Sur</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>OLIVOS DEL SUR SA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>14/07/2010</t>
+          <t>03/09/2010</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4756761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4897884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Planta de Aceite de Oliva San Jose (e-seia)</t>
+          <t>PLANTELES DE BROILER NUEVA ESTRELLA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Agromarchigüe S.A.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>25/01/2010</t>
+          <t>14/07/2010</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4343737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4756761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>18/01/2010</t>
+          <t>25/01/2010</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4343737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Planta de Aceite de Oliva San Jose (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Agromarchigüe S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>50</v>
+        <v>1700</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>18/01/2010</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento Aguas Servidas, La Estrella La Estrella (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Estrella</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>451</v>
+        <v>250</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>24/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3205671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Mejoramiento Planta de Tratamiento Aguas Servidas, La Estrella La Estrella (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,20 +1730,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de La Estrella</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>250</v>
+        <v>451</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>24/09/2008</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3205671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,36 +1768,40 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Plantel de Cerdos Quebrada Honda</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Agrícola Santa Lucía Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>52020</v>
+        <v>250</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>05/12/2007</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2568800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1812,14 +1816,10 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>EMBALSE PARCELAS DE GUADALAO. AGRICOLA COSTANERA S.A. (e-seia)</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Plantel de Cerdos Quebrada Honda</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
           <t>Sexta</t>
@@ -1827,25 +1827,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Olivos del Sur S.A.</t>
+          <t>Agrícola Santa Lucía Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>150</v>
+        <v>52020</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>09/11/2007</t>
+          <t>05/12/2007</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2486798&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2568800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>EMBALSE PARCELAS DE GUADALAO. AGRICOLA COSTANERA S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1870,30 +1870,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Olivos del Sur S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>09/11/2007</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2486798&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1923,15 +1923,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PLANTEL DE CERDOS SANTA CLOTILDE (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1966,30 +1966,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Agrícola Santa Lucía Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>15000</v>
+        <v>10</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>19/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2244246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>PLANTEL DE CERDOS SANTA CLOTILDE (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2014,30 +2014,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Agrícola Santa Lucía Ltda.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>19/07/2007</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2244246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Planta de Aceite de Oliva (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2062,30 +2062,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Olivos del Sur S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>18/04/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2111933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Embalse Estacional Las Damas III (v 2.0) (e-seia)</t>
+          <t>Planta de Aceite de Oliva (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2115,15 +2115,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Inversiones Monte Los Olivos .</t>
+          <t>Olivos del Sur S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>106</v>
+        <v>4000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>06/02/2007</t>
+          <t>18/04/2007</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1964789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2111933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Embalse Estacional Las Damas III (e-seia)</t>
+          <t>Embalse Estacional Las Damas III (v 2.0) (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,21 +2167,21 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>17/01/2007</t>
+          <t>06/02/2007</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1933005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1964789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Embalse Estacional Las Damas III (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2206,30 +2206,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Inversiones Monte Los Olivos .</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>17/01/2007</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1933005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,17 +2267,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>EMBALSE VIÑA VERAMONTE (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2302,30 +2302,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Empresas Vitivinícolas S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Embalse Estacional Las Damas II, Inversiones Monte Los Olivos S.A. (e-seia)</t>
+          <t>EMBALSE VIÑA VERAMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2355,25 +2355,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Inversiones Monte Los Olivos .</t>
+          <t>Empresas Vitivinícolas S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1654083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Embalse Estacional Las Damas I, Inversiones Monte los Olivos S.A. (e-seia)</t>
+          <t>Embalse Estacional Las Damas II, Inversiones Monte Los Olivos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>486</v>
+        <v>256</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>21/08/2006</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1600467&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1654083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE LA ESTRELLA. LOCALIDAD LA ESTRELLA (e-seia)</t>
+          <t>Embalse Estacional Las Damas I, Inversiones Monte los Olivos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2451,15 +2451,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>I.M. de LA ESTRELLA</t>
+          <t>Inversiones Monte Los Olivos .</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>18/07/2006</t>
+          <t>21/08/2006</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1561319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1600467&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE LA ESTRELLA. LOCALIDAD LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2494,30 +2494,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>I.M. de LA ESTRELLA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>18/07/2006</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1561319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sector de Crianza de Aves Broiler, Nueva Estrella (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2542,20 +2542,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>4532</v>
+        <v>4000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>17/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1352322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Sector de Crianza de Aves Broiler, Nueva Estrella (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2590,30 +2590,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4000</v>
+        <v>4532</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>17/03/2006</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1352322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2643,25 +2643,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2699,17 +2699,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ampliación de 8 Planteles Destete-Venta de Cerdos y Modificación de Sistema de Tratamiento, sector La Estrella (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2734,30 +2734,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>5200</v>
+        <v>72</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>05/04/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=647064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE PARA EL MANEJO DE GUANOS Y LODOS, SECTOR LA ESTRELLA (e-seia)</t>
+          <t>Ampliación de 8 Planteles Destete-Venta de Cerdos y Modificación de Sistema de Tratamiento, sector La Estrella (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,21 +2791,21 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>600</v>
+        <v>5200</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>18/03/2005</t>
+          <t>05/04/2005</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=647064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sector de Crianza de Pollos Broiler, Los Huilles (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE PARA EL MANEJO DE GUANOS Y LODOS, SECTOR LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,21 +2839,21 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3969</v>
+        <v>600</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>20/01/2005</t>
+          <t>18/03/2005</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=575085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ampliación de Cuatro Planteles de Pollos Broiler, La Estrella (e-seia)</t>
+          <t>Sector de Crianza de Pollos Broiler, Los Huilles (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2032</v>
+        <v>3969</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>11/01/2005</t>
+          <t>20/01/2005</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=564688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=575085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>"Sector de Crianza de Pollos Broiler, Las Correhuelas" (e-seia)</t>
+          <t>Ampliación de Cuatro Planteles de Pollos Broiler, La Estrella (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3515</v>
+        <v>2032</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>24/06/2004</t>
+          <t>11/01/2005</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=384533&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=564688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sector de Crianza Pollos Broiler Las Cardillas (e-seia)</t>
+          <t>"Sector de Crianza de Pollos Broiler, Las Correhuelas" (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2767</v>
+        <v>3515</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>22/04/2004</t>
+          <t>24/06/2004</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=331497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=384533&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sector de Crianza Pollos Broiler Las Murallas (e-seia)</t>
+          <t>Sector de Crianza Pollos Broiler Las Cardillas (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2713</v>
+        <v>2767</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>31/03/2004</t>
+          <t>22/04/2004</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=306095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=331497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Modificación al Tratamiento de Residuos Industriales Líquidos de Olivícola La Estrella S.A. (e-seia)</t>
+          <t>Sector de Crianza Pollos Broiler Las Murallas (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3075,15 +3075,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Olivícola La Estrella S.A.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>12</v>
+        <v>2713</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>22/03/2004</t>
+          <t>31/03/2004</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267574&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=306095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Modificación al Tratamiento de Residuos Industriales Líquidos de Olivícola La Estrella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3123,15 +3123,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Olivícola La Estrella S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>22/03/2004</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267574&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental para Planta Procesadora de Aceitunas Olivícola La Estrella S.A.</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3171,15 +3171,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Olivicola La Estrella Sociedad Anónima</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>09/01/2001</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sector de Engorda de Cerdos La Estrella 1 2 3 4 5 6 7 y 8</t>
+          <t>Saneamiento Ambiental para Planta Procesadora de Aceitunas Olivícola La Estrella S.A.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3219,15 +3219,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Olivicola La Estrella Sociedad Anónima</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1800</v>
+        <v>70</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>05/07/2000</t>
+          <t>09/01/2001</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3252,43 +3252,91 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>Sector de Engorda de Cerdos La Estrella 1 2 3 4 5 6 7 y 8</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Agrícola Super Limitada</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>05/07/2000</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2979&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>La Estrella</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
           <t>Plan Regulador Intercomunal Lago Rapel</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
-      <c r="F61" t="n">
+      <c r="F62" t="n">
         <v>0</v>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>13/01/2000</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>La Estrella</t>
         </is>

--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,16 +1586,16 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Estrella</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1604,12 +1604,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,16 +1634,16 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de La Estrella</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>250</v>
+        <v>398</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1652,12 +1652,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">

--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,16 +1586,16 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de La Estrella</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>250</v>
+        <v>398</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1604,12 +1604,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,16 +1634,16 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Estrella</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1652,12 +1652,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">

--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/06/2022</t>
+          <t>22/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación Planta de Aceite de Oliva</t>
+          <t>Nueva Subestación Seccionadora Loica y Nueva Línea 2x220 Kv Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Olivos del Sur S.A.</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10000</v>
+        <v>31678</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/06/2022</t>
+          <t>14/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156293388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156441314&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>30/05/2022</t>
+          <t>22/06/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155912607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156293388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
+          <t>Modificación Planta de Aceite de Oliva</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Olivos del Sur S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>31678</v>
+        <v>10000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>30/05/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155912607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Pulin</t>
+          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Agrícola Santa Lucía Ltda.</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>55000</v>
+        <v>31678</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153909303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/10/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153449839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153909303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CENTRAL SOLAR GRAN GUADALAO</t>
+          <t>Parque Fotovoltaico Pulin</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FOTOVOLTAICA MAÑÍO SPA</t>
+          <t>Agrícola Santa Lucía Ltda.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>800</v>
+        <v>55000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19/05/2020</t>
+          <t>22/10/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146548093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153449839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>19/05/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146346970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146548093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Planta de Alimentos Balanceados La Estrella</t>
+          <t>CENTRAL SOLAR GRAN GUADALAO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>FOTOVOLTAICA MAÑÍO SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>70000</v>
+        <v>800</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/08/2018</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141217775&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146346970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Embalse Estacional La Estrella</t>
+          <t>Planta de Alimentos Balanceados La Estrella</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Juan Carlos Fernández Padilla</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>510</v>
+        <v>70000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>19/05/2016</t>
+          <t>20/08/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131208144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141217775&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Maitenes</t>
+          <t>Embalse Estacional La Estrella</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Maitenes Solar Spa</t>
+          <t>Juan Carlos Fernández Padilla</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>20000</v>
+        <v>510</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/04/2015</t>
+          <t>19/05/2016</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131208144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Berlino</t>
+          <t>Planta Fotovoltaica Maitenes</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Berlino Solar Spa</t>
+          <t>Maitenes Solar Spa</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -927,7 +927,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/03/2015</t>
+          <t>23/04/2015</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Eólico La Estrella</t>
+          <t>Planta Fotovoltaica Berlino</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Eólica La Estrella SpA</t>
+          <t>Berlino Solar Spa</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>105000</v>
+        <v>20000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>20/03/2015</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130253259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico La Estrella</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Eólica La Estrella SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>200</v>
+        <v>105000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130253259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Plantel de cerdos Quebrada Honda</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Agrícola Santa Lucía Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>18015</v>
+        <v>100</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>14/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6370413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>07/07/2011</t>
+          <t>14/12/2011</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5766571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6370413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA PROCESADORA DE ACEITE DE OLIVA AGRÍCOLA POBEÑA S.A. LA ESTRELLA, REGIÓN DEL LIBERTADOR GENERAL BERNARDO O¿HIGGINS</t>
+          <t>Plantel de cerdos Quebrada Honda</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Agrícola Pobeña S.A.</t>
+          <t>Agrícola Santa Lucía Ltda.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5082</v>
+        <v>18015</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>30/06/2011</t>
+          <t>07/07/2011</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5698957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5766571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Regularización Tranque Cerro Colorado</t>
+          <t>PROYECTO PLANTA PROCESADORA DE ACEITE DE OLIVA AGRÍCOLA POBEÑA S.A. LA ESTRELLA, REGIÓN DEL LIBERTADOR GENERAL BERNARDO O¿HIGGINS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1259,11 +1259,11 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>650</v>
+        <v>5082</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>27/12/2010</t>
+          <t>30/06/2011</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5126661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5698957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Embalse Olivos del Sur</t>
+          <t>Regularización Tranque Cerro Colorado</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>OLIVOS DEL SUR SA</t>
+          <t>Agrícola Pobeña S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>71</v>
+        <v>650</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>03/09/2010</t>
+          <t>27/12/2010</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4897884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5126661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PLANTELES DE BROILER NUEVA ESTRELLA</t>
+          <t>Embalse Olivos del Sur</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>OLIVOS DEL SUR SA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>14/07/2010</t>
+          <t>03/09/2010</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4756761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4897884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Planta de Aceite de Oliva San Jose (e-seia)</t>
+          <t>PLANTELES DE BROILER NUEVA ESTRELLA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Agromarchigüe S.A.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>25/01/2010</t>
+          <t>14/07/2010</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4343737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4756761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>18/01/2010</t>
+          <t>25/01/2010</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4343737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Planta de Aceite de Oliva San Jose (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Agromarchigüe S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>50</v>
+        <v>1700</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>18/01/2010</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento Aguas Servidas, La Estrella La Estrella (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Estrella</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>451</v>
+        <v>250</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>24/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3205671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Mejoramiento Planta de Tratamiento Aguas Servidas, La Estrella La Estrella (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,20 +1778,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de La Estrella</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>250</v>
+        <v>451</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>24/09/2008</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3205671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,36 +1816,40 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Plantel de Cerdos Quebrada Honda</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Agrícola Santa Lucía Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>52020</v>
+        <v>250</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>05/12/2007</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2568800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1860,14 +1864,10 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>EMBALSE PARCELAS DE GUADALAO. AGRICOLA COSTANERA S.A. (e-seia)</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Plantel de Cerdos Quebrada Honda</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
           <t>Sexta</t>
@@ -1875,25 +1875,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Olivos del Sur S.A.</t>
+          <t>Agrícola Santa Lucía Ltda.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>150</v>
+        <v>52020</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>09/11/2007</t>
+          <t>05/12/2007</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2486798&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2568800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>EMBALSE PARCELAS DE GUADALAO. AGRICOLA COSTANERA S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1918,30 +1918,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Olivos del Sur S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>09/11/2007</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2486798&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1971,15 +1971,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PLANTEL DE CERDOS SANTA CLOTILDE (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2014,30 +2014,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Agrícola Santa Lucía Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>15000</v>
+        <v>10</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>19/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2244246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>PLANTEL DE CERDOS SANTA CLOTILDE (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2062,30 +2062,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Agrícola Santa Lucía Ltda.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>19/07/2007</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2244246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Planta de Aceite de Oliva (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2110,30 +2110,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Olivos del Sur S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>18/04/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2111933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Embalse Estacional Las Damas III (v 2.0) (e-seia)</t>
+          <t>Planta de Aceite de Oliva (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2163,15 +2163,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Inversiones Monte Los Olivos .</t>
+          <t>Olivos del Sur S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>106</v>
+        <v>4000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>06/02/2007</t>
+          <t>18/04/2007</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1964789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2111933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Embalse Estacional Las Damas III (e-seia)</t>
+          <t>Embalse Estacional Las Damas III (v 2.0) (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,21 +2215,21 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>17/01/2007</t>
+          <t>06/02/2007</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1933005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1964789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Embalse Estacional Las Damas III (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2254,30 +2254,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Inversiones Monte Los Olivos .</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>17/01/2007</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1933005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,17 +2315,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>EMBALSE VIÑA VERAMONTE (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2350,30 +2350,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Empresas Vitivinícolas S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Embalse Estacional Las Damas II, Inversiones Monte Los Olivos S.A. (e-seia)</t>
+          <t>EMBALSE VIÑA VERAMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2403,25 +2403,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Inversiones Monte Los Olivos .</t>
+          <t>Empresas Vitivinícolas S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1654083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Embalse Estacional Las Damas I, Inversiones Monte los Olivos S.A. (e-seia)</t>
+          <t>Embalse Estacional Las Damas II, Inversiones Monte Los Olivos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>486</v>
+        <v>256</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>21/08/2006</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1600467&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1654083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE LA ESTRELLA. LOCALIDAD LA ESTRELLA (e-seia)</t>
+          <t>Embalse Estacional Las Damas I, Inversiones Monte los Olivos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2499,15 +2499,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>I.M. de LA ESTRELLA</t>
+          <t>Inversiones Monte Los Olivos .</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>18/07/2006</t>
+          <t>21/08/2006</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1561319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1600467&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE LA ESTRELLA. LOCALIDAD LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2542,30 +2542,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>I.M. de LA ESTRELLA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>18/07/2006</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1561319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sector de Crianza de Aves Broiler, Nueva Estrella (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2590,20 +2590,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4532</v>
+        <v>4000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>17/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1352322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Sector de Crianza de Aves Broiler, Nueva Estrella (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2638,30 +2638,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4000</v>
+        <v>4532</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>17/03/2006</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1352322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2691,25 +2691,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2747,17 +2747,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliación de 8 Planteles Destete-Venta de Cerdos y Modificación de Sistema de Tratamiento, sector La Estrella (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2782,30 +2782,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>5200</v>
+        <v>72</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>05/04/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=647064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE PARA EL MANEJO DE GUANOS Y LODOS, SECTOR LA ESTRELLA (e-seia)</t>
+          <t>Ampliación de 8 Planteles Destete-Venta de Cerdos y Modificación de Sistema de Tratamiento, sector La Estrella (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,21 +2839,21 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>600</v>
+        <v>5200</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>18/03/2005</t>
+          <t>05/04/2005</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=647064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sector de Crianza de Pollos Broiler, Los Huilles (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE PARA EL MANEJO DE GUANOS Y LODOS, SECTOR LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,21 +2887,21 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3969</v>
+        <v>600</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>20/01/2005</t>
+          <t>18/03/2005</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=575085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ampliación de Cuatro Planteles de Pollos Broiler, La Estrella (e-seia)</t>
+          <t>Sector de Crianza de Pollos Broiler, Los Huilles (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2032</v>
+        <v>3969</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>11/01/2005</t>
+          <t>20/01/2005</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=564688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=575085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>"Sector de Crianza de Pollos Broiler, Las Correhuelas" (e-seia)</t>
+          <t>Ampliación de Cuatro Planteles de Pollos Broiler, La Estrella (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3515</v>
+        <v>2032</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>24/06/2004</t>
+          <t>11/01/2005</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=384533&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=564688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sector de Crianza Pollos Broiler Las Cardillas (e-seia)</t>
+          <t>"Sector de Crianza de Pollos Broiler, Las Correhuelas" (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2767</v>
+        <v>3515</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>22/04/2004</t>
+          <t>24/06/2004</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=331497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=384533&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sector de Crianza Pollos Broiler Las Murallas (e-seia)</t>
+          <t>Sector de Crianza Pollos Broiler Las Cardillas (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2713</v>
+        <v>2767</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>31/03/2004</t>
+          <t>22/04/2004</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=306095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=331497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Modificación al Tratamiento de Residuos Industriales Líquidos de Olivícola La Estrella S.A. (e-seia)</t>
+          <t>Sector de Crianza Pollos Broiler Las Murallas (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3123,15 +3123,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Olivícola La Estrella S.A.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>12</v>
+        <v>2713</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>22/03/2004</t>
+          <t>31/03/2004</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267574&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=306095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Modificación al Tratamiento de Residuos Industriales Líquidos de Olivícola La Estrella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3171,15 +3171,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Olivícola La Estrella S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>22/03/2004</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267574&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental para Planta Procesadora de Aceitunas Olivícola La Estrella S.A.</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3219,15 +3219,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Olivicola La Estrella Sociedad Anónima</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>09/01/2001</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sector de Engorda de Cerdos La Estrella 1 2 3 4 5 6 7 y 8</t>
+          <t>Saneamiento Ambiental para Planta Procesadora de Aceitunas Olivícola La Estrella S.A.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3267,15 +3267,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Olivicola La Estrella Sociedad Anónima</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1800</v>
+        <v>70</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>05/07/2000</t>
+          <t>09/01/2001</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3300,43 +3300,91 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>Sector de Engorda de Cerdos La Estrella 1 2 3 4 5 6 7 y 8</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Agrícola Super Limitada</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>05/07/2000</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2979&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>La Estrella</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
           <t>Plan Regulador Intercomunal Lago Rapel</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
         <is>
           <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
-      <c r="F62" t="n">
+      <c r="F63" t="n">
         <v>0</v>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>13/01/2000</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>La Estrella</t>
         </is>

--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/07/2022</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,16 +1634,16 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Estrella</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1652,12 +1652,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,16 +1682,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de La Estrella</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>250</v>
+        <v>398</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">

--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,16 +1634,16 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de La Estrella</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>250</v>
+        <v>398</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1652,12 +1652,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,16 +1682,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Estrella</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">

--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>20/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,16 +1634,16 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de La Estrella</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>250</v>
+        <v>398</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1652,12 +1652,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,16 +1682,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Estrella</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">

--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nueva Subestación Seccionadora Loica y Nueva Línea 2x220 Kv Loica - Portezuelo</t>
+          <t>NUEVA SUBESTACIÓN SECCIONADORA LOICA Y NUEVA LÍNEA 2X220 KV LOICA ? PORTEZUELO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/07/2022</t>
+          <t>03/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156441314&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158390441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación Planta de Aceite de Oliva</t>
+          <t>Nueva Subestación Seccionadora Loica y Nueva Línea 2x220 Kv Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Olivos del Sur S.A.</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10000</v>
+        <v>31678</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/06/2022</t>
+          <t>20/07/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156293388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156441314&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>30/05/2022</t>
+          <t>22/06/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155912607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156293388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
+          <t>Modificación Planta de Aceite de Oliva</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Olivos del Sur S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>31678</v>
+        <v>10000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>30/05/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155912607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Pulin</t>
+          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Agrícola Santa Lucía Ltda.</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>55000</v>
+        <v>31678</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153909303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/10/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153449839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153909303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CENTRAL SOLAR GRAN GUADALAO</t>
+          <t>Parque Fotovoltaico Pulin</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FOTOVOLTAICA MAÑÍO SPA</t>
+          <t>Agrícola Santa Lucía Ltda.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>800</v>
+        <v>55000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19/05/2020</t>
+          <t>22/10/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146548093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153449839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>19/05/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146346970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146548093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta de Alimentos Balanceados La Estrella</t>
+          <t>CENTRAL SOLAR GRAN GUADALAO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>FOTOVOLTAICA MAÑÍO SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>70000</v>
+        <v>800</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/08/2018</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141217775&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146346970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Embalse Estacional La Estrella</t>
+          <t>Planta de Alimentos Balanceados La Estrella</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Juan Carlos Fernández Padilla</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>510</v>
+        <v>70000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>19/05/2016</t>
+          <t>20/08/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131208144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141217775&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Maitenes</t>
+          <t>Embalse Estacional La Estrella</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Maitenes Solar Spa</t>
+          <t>Juan Carlos Fernández Padilla</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>20000</v>
+        <v>510</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/04/2015</t>
+          <t>19/05/2016</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131208144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Berlino</t>
+          <t>Planta Fotovoltaica Maitenes</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Berlino Solar Spa</t>
+          <t>Maitenes Solar Spa</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -975,7 +975,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/03/2015</t>
+          <t>23/04/2015</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Eólico La Estrella</t>
+          <t>Planta Fotovoltaica Berlino</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Eólica La Estrella SpA</t>
+          <t>Berlino Solar Spa</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>105000</v>
+        <v>20000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>20/03/2015</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130253259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico La Estrella</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Eólica La Estrella SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>200</v>
+        <v>105000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130253259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Plantel de cerdos Quebrada Honda</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Agrícola Santa Lucía Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>18015</v>
+        <v>100</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>14/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6370413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>07/07/2011</t>
+          <t>14/12/2011</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5766571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6370413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA PROCESADORA DE ACEITE DE OLIVA AGRÍCOLA POBEÑA S.A. LA ESTRELLA, REGIÓN DEL LIBERTADOR GENERAL BERNARDO O¿HIGGINS</t>
+          <t>Plantel de cerdos Quebrada Honda</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Agrícola Pobeña S.A.</t>
+          <t>Agrícola Santa Lucía Ltda.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5082</v>
+        <v>18015</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>30/06/2011</t>
+          <t>07/07/2011</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5698957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5766571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Regularización Tranque Cerro Colorado</t>
+          <t>PROYECTO PLANTA PROCESADORA DE ACEITE DE OLIVA AGRÍCOLA POBEÑA S.A. LA ESTRELLA, REGIÓN DEL LIBERTADOR GENERAL BERNARDO O¿HIGGINS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>650</v>
+        <v>5082</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>27/12/2010</t>
+          <t>30/06/2011</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5126661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5698957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Embalse Olivos del Sur</t>
+          <t>Regularización Tranque Cerro Colorado</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>OLIVOS DEL SUR SA</t>
+          <t>Agrícola Pobeña S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>71</v>
+        <v>650</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>03/09/2010</t>
+          <t>27/12/2010</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4897884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5126661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PLANTELES DE BROILER NUEVA ESTRELLA</t>
+          <t>Embalse Olivos del Sur</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Luis Felipe Fuenzalida Bascuñán</t>
+          <t>OLIVOS DEL SUR SA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>14/07/2010</t>
+          <t>03/09/2010</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4756761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4897884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Planta de Aceite de Oliva San Jose (e-seia)</t>
+          <t>PLANTELES DE BROILER NUEVA ESTRELLA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Agromarchigüe S.A.</t>
+          <t>Luis Felipe Fuenzalida Bascuñán</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>25/01/2010</t>
+          <t>14/07/2010</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4343737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4756761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>18/01/2010</t>
+          <t>25/01/2010</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4343737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Planta de Aceite de Oliva San Jose (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Agromarchigüe S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>50</v>
+        <v>1700</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>18/01/2010</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento Aguas Servidas, La Estrella La Estrella (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Estrella</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>451</v>
+        <v>250</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>24/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3205671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Mejoramiento Planta de Tratamiento Aguas Servidas, La Estrella La Estrella (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,20 +1826,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de La Estrella</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>250</v>
+        <v>451</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>24/09/2008</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3205671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,36 +1864,40 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Plantel de Cerdos Quebrada Honda</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Agrícola Santa Lucía Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>52020</v>
+        <v>250</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>05/12/2007</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2568800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1908,14 +1912,10 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>EMBALSE PARCELAS DE GUADALAO. AGRICOLA COSTANERA S.A. (e-seia)</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Plantel de Cerdos Quebrada Honda</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
           <t>Sexta</t>
@@ -1923,25 +1923,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Olivos del Sur S.A.</t>
+          <t>Agrícola Santa Lucía Ltda.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>150</v>
+        <v>52020</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>09/11/2007</t>
+          <t>05/12/2007</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2486798&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2568800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>EMBALSE PARCELAS DE GUADALAO. AGRICOLA COSTANERA S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1966,30 +1966,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Olivos del Sur S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>09/11/2007</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2486798&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2019,15 +2019,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PLANTEL DE CERDOS SANTA CLOTILDE (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2062,30 +2062,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Agrícola Santa Lucía Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>15000</v>
+        <v>10</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>19/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2244246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>PLANTEL DE CERDOS SANTA CLOTILDE (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2110,30 +2110,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Agrícola Santa Lucía Ltda.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>19/07/2007</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2244246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Planta de Aceite de Oliva (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2158,30 +2158,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Olivos del Sur S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>18/04/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2111933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Embalse Estacional Las Damas III (v 2.0) (e-seia)</t>
+          <t>Planta de Aceite de Oliva (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2211,15 +2211,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Inversiones Monte Los Olivos .</t>
+          <t>Olivos del Sur S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>106</v>
+        <v>4000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>06/02/2007</t>
+          <t>18/04/2007</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1964789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2111933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Embalse Estacional Las Damas III (e-seia)</t>
+          <t>Embalse Estacional Las Damas III (v 2.0) (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,21 +2263,21 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>17/01/2007</t>
+          <t>06/02/2007</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1933005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1964789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Embalse Estacional Las Damas III (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2302,30 +2302,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Inversiones Monte Los Olivos .</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>17/01/2007</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1933005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2363,17 +2363,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>EMBALSE VIÑA VERAMONTE (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2398,30 +2398,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Empresas Vitivinícolas S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Embalse Estacional Las Damas II, Inversiones Monte Los Olivos S.A. (e-seia)</t>
+          <t>EMBALSE VIÑA VERAMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2451,25 +2451,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Inversiones Monte Los Olivos .</t>
+          <t>Empresas Vitivinícolas S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1654083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Embalse Estacional Las Damas I, Inversiones Monte los Olivos S.A. (e-seia)</t>
+          <t>Embalse Estacional Las Damas II, Inversiones Monte Los Olivos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>486</v>
+        <v>256</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>21/08/2006</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1600467&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1654083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE LA ESTRELLA. LOCALIDAD LA ESTRELLA (e-seia)</t>
+          <t>Embalse Estacional Las Damas I, Inversiones Monte los Olivos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2547,15 +2547,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>I.M. de LA ESTRELLA</t>
+          <t>Inversiones Monte Los Olivos .</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>18/07/2006</t>
+          <t>21/08/2006</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1561319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1600467&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE LA ESTRELLA. LOCALIDAD LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2590,30 +2590,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>I.M. de LA ESTRELLA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>18/07/2006</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1561319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sector de Crianza de Aves Broiler, Nueva Estrella (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2638,20 +2638,20 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4532</v>
+        <v>4000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>17/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1352322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Sector de Crianza de Aves Broiler, Nueva Estrella (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2686,30 +2686,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4000</v>
+        <v>4532</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>17/03/2006</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1352322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2739,25 +2739,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2795,17 +2795,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ampliación de 8 Planteles Destete-Venta de Cerdos y Modificación de Sistema de Tratamiento, sector La Estrella (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2830,30 +2830,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5200</v>
+        <v>72</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>05/04/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=647064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE PARA EL MANEJO DE GUANOS Y LODOS, SECTOR LA ESTRELLA (e-seia)</t>
+          <t>Ampliación de 8 Planteles Destete-Venta de Cerdos y Modificación de Sistema de Tratamiento, sector La Estrella (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,21 +2887,21 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>600</v>
+        <v>5200</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>18/03/2005</t>
+          <t>05/04/2005</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=647064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sector de Crianza de Pollos Broiler, Los Huilles (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE PARA EL MANEJO DE GUANOS Y LODOS, SECTOR LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,21 +2935,21 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3969</v>
+        <v>600</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>20/01/2005</t>
+          <t>18/03/2005</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=575085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=630849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación de Cuatro Planteles de Pollos Broiler, La Estrella (e-seia)</t>
+          <t>Sector de Crianza de Pollos Broiler, Los Huilles (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2032</v>
+        <v>3969</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>11/01/2005</t>
+          <t>20/01/2005</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=564688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=575085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>"Sector de Crianza de Pollos Broiler, Las Correhuelas" (e-seia)</t>
+          <t>Ampliación de Cuatro Planteles de Pollos Broiler, La Estrella (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3515</v>
+        <v>2032</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>24/06/2004</t>
+          <t>11/01/2005</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=384533&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=564688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sector de Crianza Pollos Broiler Las Cardillas (e-seia)</t>
+          <t>"Sector de Crianza de Pollos Broiler, Las Correhuelas" (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2767</v>
+        <v>3515</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>22/04/2004</t>
+          <t>24/06/2004</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=331497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=384533&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sector de Crianza Pollos Broiler Las Murallas (e-seia)</t>
+          <t>Sector de Crianza Pollos Broiler Las Cardillas (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,11 +3127,11 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2713</v>
+        <v>2767</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>31/03/2004</t>
+          <t>22/04/2004</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=306095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=331497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Modificación al Tratamiento de Residuos Industriales Líquidos de Olivícola La Estrella S.A. (e-seia)</t>
+          <t>Sector de Crianza Pollos Broiler Las Murallas (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3171,15 +3171,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Olivícola La Estrella S.A.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>12</v>
+        <v>2713</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>22/03/2004</t>
+          <t>31/03/2004</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267574&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=306095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Modificación al Tratamiento de Residuos Industriales Líquidos de Olivícola La Estrella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3219,15 +3219,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Olivícola La Estrella S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>22/03/2004</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=267574&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental para Planta Procesadora de Aceitunas Olivícola La Estrella S.A.</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3267,15 +3267,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Olivicola La Estrella Sociedad Anónima</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>09/01/2001</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sector de Engorda de Cerdos La Estrella 1 2 3 4 5 6 7 y 8</t>
+          <t>Saneamiento Ambiental para Planta Procesadora de Aceitunas Olivícola La Estrella S.A.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3315,15 +3315,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Olivicola La Estrella Sociedad Anónima</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1800</v>
+        <v>70</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>05/07/2000</t>
+          <t>09/01/2001</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3348,43 +3348,91 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>Sector de Engorda de Cerdos La Estrella 1 2 3 4 5 6 7 y 8</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Agrícola Super Limitada</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>05/07/2000</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2979&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>La Estrella</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
           <t>Plan Regulador Intercomunal Lago Rapel</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
-      <c r="F63" t="n">
+      <c r="F64" t="n">
         <v>0</v>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>13/01/2000</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>La Estrella</t>
         </is>

--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,16 +1682,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Estrella</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,16 +1730,16 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de La Estrella</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>250</v>
+        <v>398</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1748,12 +1748,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">

--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,16 +1682,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de La Estrella</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>250</v>
+        <v>398</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,16 +1730,16 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Estrella</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1748,12 +1748,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">

--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/02/2023</t>
+          <t>17/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,16 +1682,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de La Estrella</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>250</v>
+        <v>398</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,16 +1730,16 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Estrella</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1748,12 +1748,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">

--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/03/2023</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,16 +1682,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Estrella</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,16 +1730,16 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de La Estrella</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>250</v>
+        <v>398</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1748,12 +1748,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">

--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,16 +1682,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de La Estrella</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>250</v>
+        <v>398</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,16 +1730,16 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Estrella</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1748,12 +1748,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">

--- a/data/La Estrella.xlsx
+++ b/data/La Estrella.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NUEVA SUBESTACIÓN SECCIONADORA LOICA Y NUEVA LÍNEA 2X220 KV LOICA ? PORTEZUELO</t>
+          <t>Nueva Subestación Seccionadora Loica y Nueva Línea 2x220 Kv Loica Portezuelo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,16 +1682,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de La Estrella</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>250</v>
+        <v>398</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PLANTA DE TRATAMIENTO AGUAS SERVIDAS DE LA ESTRELLA (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,16 +1730,16 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Estrella</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1748,12 +1748,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3258605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
